--- a/medicine/Enfance/Michel_Grimaud/Michel_Grimaud.xlsx
+++ b/medicine/Enfance/Michel_Grimaud/Michel_Grimaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Grimaud est le pseudonyme collectif[1] de Marcelle Perriod (née le 11 octobre 1937 à Paris et morte le 22 janvier 2011) et de son mari Jean-Louis Fraysse (né le 28 juillet 1946[2] à Cransac dans l'Aveyron et mort le 27 juillet 2011[3]), deux écrivains français vivant et travaillant en couple de 1968 au décès de Marcelle Perriod en 2011. Leurs genres de prédilection sont la science-fiction, le roman policier et la littérature d'enfance et de jeunesse[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Grimaud est le pseudonyme collectif de Marcelle Perriod (née le 11 octobre 1937 à Paris et morte le 22 janvier 2011) et de son mari Jean-Louis Fraysse (né le 28 juillet 1946 à Cransac dans l'Aveyron et mort le 27 juillet 2011), deux écrivains français vivant et travaillant en couple de 1968 au décès de Marcelle Perriod en 2011. Leurs genres de prédilection sont la science-fiction, le roman policier et la littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -513,14 +525,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Romans pour adultes
-Malakansâr ou l'Éternité des pierres, Denoël, 1980.
-La Dame de cuir, Denoël, 1981[5].
+          <t>Romans pour adultes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Malakansâr ou l'Éternité des pierres, Denoël, 1980.
+La Dame de cuir, Denoël, 1981.
 L'Arbre d'or, Denoël, 1983.
 42, rue Saint-Sauveur, Liana Lévi, 1986.
-Un cave dans le charbon, Liana Lévi, 2006 (réédition de 42, rue Saint-Sauveur)[6].
-Œuvres pour la jeunesse
-Rhôor,  éd. Alsatia, coll. « Signe de piste », SSDP 2, 1971.
+Un cave dans le charbon, Liana Lévi, 2006 (réédition de 42, rue Saint-Sauveur).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Michel_Grimaud</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Grimaud</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Œuvres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rhôor,  éd. Alsatia, coll. « Signe de piste », SSDP 2, 1971.
 Amaury, chevalier cathare, Robert Laffont, 1971.
 Les Pirates de Bornéo, Rageot, 1972.
 Rhôor et les Pillards, éd. Alsatia, coll. « Signe de piste », SSDP 22, 1972.
@@ -565,33 +616,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Michel_Grimaud</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michel_Grimaud</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1976 : (international) « Honor List »[7], de l' IBBY, pour Des hommes traqués
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1976 : (international) « Honor List », de l' IBBY, pour Des hommes traqués
 1983 : Prix Sobrier-Arnould de l'Académie française pour Les Contes de la Ficelle
 1983 : Grand prix de la science-fiction française pour Le Tyran d'Axilane</t>
         </is>
